--- a/src/data/students.xlsx
+++ b/src/data/students.xlsx
@@ -1,277 +1,337 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="data"/>
-    <sheet r:id="rId2" sheetId="2" name="Evaluation Warning"/>
+    <sheet name="data" sheetId="1" r:id="rId3"/>
+    <sheet name="Evaluation Warning" sheetId="12" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
+  <si>
+    <t>3194949467</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>civil_state</t>
+  </si>
+  <si>
+    <t>type_document</t>
+  </si>
+  <si>
+    <t>document_number</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>Cly</t>
+  </si>
+  <si>
+    <t>Realph</t>
+  </si>
+  <si>
+    <t>crealph0@liveinternet.ru</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>57585 Maple Wood Place</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Darby</t>
+  </si>
+  <si>
+    <t>Arlina</t>
+  </si>
+  <si>
+    <t>Gilfillan</t>
+  </si>
+  <si>
+    <t>agilfillan1@jugem.jp</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>37864 Helena Center</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Bupropion Hydrochloride</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Petyt</t>
+  </si>
+  <si>
+    <t>lpetyt2@wufoo.com</t>
+  </si>
+  <si>
+    <t>430 Doe Crossing Circle</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>Antiacterial Hand Sanitizer</t>
+  </si>
+  <si>
+    <t>Artair</t>
+  </si>
+  <si>
+    <t>Fedynski</t>
+  </si>
+  <si>
+    <t>afedynski3@bizjournals.com</t>
+  </si>
+  <si>
+    <t>7 Packers Crossing</t>
+  </si>
+  <si>
+    <t>Punjabi</t>
+  </si>
+  <si>
+    <t>Irish Gaelic</t>
+  </si>
+  <si>
+    <t>Venlafaxine Hydrochloride</t>
+  </si>
+  <si>
+    <t>Salvatore</t>
+  </si>
+  <si>
+    <t>Caesmans</t>
+  </si>
+  <si>
+    <t>scaesmans4@chron.com</t>
+  </si>
+  <si>
+    <t>Genderfluid</t>
+  </si>
+  <si>
+    <t>6 West Pass</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Catalan</t>
+  </si>
+  <si>
+    <t>Clonazepam</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>Frigot</t>
+  </si>
+  <si>
+    <t>afrigot5@hexun.com</t>
+  </si>
+  <si>
+    <t>3838 Heath Way</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>demeclocycline hydrochloride</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Twitchett</t>
+  </si>
+  <si>
+    <t>btwitchett6@ibm.com</t>
+  </si>
+  <si>
+    <t>4 Scofield Crossing</t>
+  </si>
+  <si>
+    <t>Armenian</t>
+  </si>
+  <si>
+    <t>OLANZAPINE</t>
+  </si>
+  <si>
+    <t>Bethina</t>
+  </si>
+  <si>
+    <t>Whaley</t>
+  </si>
+  <si>
+    <t>bwhaley7@twitter.com</t>
+  </si>
+  <si>
+    <t>Polygender</t>
+  </si>
+  <si>
+    <t>595 Barby Place</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>CAREONE ANTIMICROBIAL FOAMING HAND SP FALLING RAIN</t>
+  </si>
+  <si>
+    <t>Edvard</t>
+  </si>
+  <si>
+    <t>Duffield</t>
+  </si>
+  <si>
+    <t>eduffield8@vistaprint.com</t>
+  </si>
+  <si>
+    <t>117 Alpine Center</t>
+  </si>
+  <si>
+    <t>Bosnian</t>
+  </si>
+  <si>
+    <t>Gujarati</t>
+  </si>
+  <si>
+    <t>ZINACEF</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>Caudrey</t>
+  </si>
+  <si>
+    <t>acaudrey9@prweb.com</t>
+  </si>
+  <si>
+    <t>29 Vernon Alley</t>
+  </si>
+  <si>
+    <t>Malagasy</t>
+  </si>
+  <si>
+    <t>healthy accents pain relief</t>
+  </si>
+  <si>
+    <t>4245668</t>
+  </si>
+  <si>
+    <t>9203403653</t>
+  </si>
+  <si>
+    <t>3752846</t>
+  </si>
+  <si>
+    <t>3609714659</t>
+  </si>
+  <si>
+    <t>1086925</t>
+  </si>
+  <si>
+    <t>3962268342</t>
+  </si>
+  <si>
+    <t>2892285</t>
+  </si>
+  <si>
+    <t>1404192248</t>
+  </si>
+  <si>
+    <t>5394885</t>
+  </si>
+  <si>
+    <t>9318318143</t>
+  </si>
+  <si>
+    <t>5496014</t>
+  </si>
+  <si>
+    <t>3562185179</t>
+  </si>
+  <si>
+    <t>2815252</t>
+  </si>
+  <si>
+    <t>7517708696</t>
+  </si>
+  <si>
+    <t>4746474</t>
+  </si>
+  <si>
+    <t>6158998713</t>
+  </si>
+  <si>
+    <t>7505928</t>
+  </si>
+  <si>
+    <t>6981934764</t>
+  </si>
+  <si>
+    <t>1480412</t>
+  </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2023 Aspose Pty Ltd.</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>civil_state</t>
-  </si>
-  <si>
-    <t>type_document</t>
-  </si>
-  <si>
-    <t>document_number</t>
-  </si>
-  <si>
-    <t>eps</t>
-  </si>
-  <si>
-    <t>Cly</t>
-  </si>
-  <si>
-    <t>Realph</t>
-  </si>
-  <si>
-    <t>crealph0@liveinternet.ru</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>57585 Maple Wood Place</t>
-  </si>
-  <si>
-    <t>Czech</t>
-  </si>
-  <si>
-    <t>Indonesian</t>
-  </si>
-  <si>
-    <t>Darby</t>
-  </si>
-  <si>
-    <t>Arlina</t>
-  </si>
-  <si>
-    <t>Gilfillan</t>
-  </si>
-  <si>
-    <t>agilfillan1@jugem.jp</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>37864 Helena Center</t>
-  </si>
-  <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>Bupropion Hydrochloride</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Petyt</t>
-  </si>
-  <si>
-    <t>lpetyt2@wufoo.com</t>
-  </si>
-  <si>
-    <t>430 Doe Crossing Circle</t>
-  </si>
-  <si>
-    <t>Swahili</t>
-  </si>
-  <si>
-    <t>Malayalam</t>
-  </si>
-  <si>
-    <t>Antiacterial Hand Sanitizer</t>
-  </si>
-  <si>
-    <t>Artair</t>
-  </si>
-  <si>
-    <t>Fedynski</t>
-  </si>
-  <si>
-    <t>afedynski3@bizjournals.com</t>
-  </si>
-  <si>
-    <t>7 Packers Crossing</t>
-  </si>
-  <si>
-    <t>Punjabi</t>
-  </si>
-  <si>
-    <t>Irish Gaelic</t>
-  </si>
-  <si>
-    <t>Venlafaxine Hydrochloride</t>
-  </si>
-  <si>
-    <t>Salvatore</t>
-  </si>
-  <si>
-    <t>Caesmans</t>
-  </si>
-  <si>
-    <t>scaesmans4@chron.com</t>
-  </si>
-  <si>
-    <t>Genderfluid</t>
-  </si>
-  <si>
-    <t>6 West Pass</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>Catalan</t>
-  </si>
-  <si>
-    <t>Clonazepam</t>
-  </si>
-  <si>
-    <t>Archer</t>
-  </si>
-  <si>
-    <t>Frigot</t>
-  </si>
-  <si>
-    <t>afrigot5@hexun.com</t>
-  </si>
-  <si>
-    <t>3838 Heath Way</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>demeclocycline hydrochloride</t>
-  </si>
-  <si>
-    <t>Billy</t>
-  </si>
-  <si>
-    <t>Twitchett</t>
-  </si>
-  <si>
-    <t>btwitchett6@ibm.com</t>
-  </si>
-  <si>
-    <t>4 Scofield Crossing</t>
-  </si>
-  <si>
-    <t>Armenian</t>
-  </si>
-  <si>
-    <t>OLANZAPINE</t>
-  </si>
-  <si>
-    <t>Bethina</t>
-  </si>
-  <si>
-    <t>Whaley</t>
-  </si>
-  <si>
-    <t>bwhaley7@twitter.com</t>
-  </si>
-  <si>
-    <t>Polygender</t>
-  </si>
-  <si>
-    <t>595 Barby Place</t>
-  </si>
-  <si>
-    <t>Finnish</t>
-  </si>
-  <si>
-    <t>Lithuanian</t>
-  </si>
-  <si>
-    <t>CAREONE ANTIMICROBIAL FOAMING HAND SP FALLING RAIN</t>
-  </si>
-  <si>
-    <t>Edvard</t>
-  </si>
-  <si>
-    <t>Duffield</t>
-  </si>
-  <si>
-    <t>eduffield8@vistaprint.com</t>
-  </si>
-  <si>
-    <t>117 Alpine Center</t>
-  </si>
-  <si>
-    <t>Bosnian</t>
-  </si>
-  <si>
-    <t>Gujarati</t>
-  </si>
-  <si>
-    <t>ZINACEF</t>
-  </si>
-  <si>
-    <t>Ariana</t>
-  </si>
-  <si>
-    <t>Caudrey</t>
-  </si>
-  <si>
-    <t>acaudrey9@prweb.com</t>
-  </si>
-  <si>
-    <t>29 Vernon Alley</t>
-  </si>
-  <si>
-    <t>Malagasy</t>
-  </si>
-  <si>
-    <t>healthy accents pain relief</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,10 +340,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="18"/>
-      <color rgb="FF0000ff"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -302,14 +368,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -318,41 +377,142 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -363,10 +523,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -642,29 +802,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="50.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.285714285714286" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.428571428571429" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.857142857142858" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.428571428571429" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.428571428571429" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.428571428571429" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.857142857142858" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.57142857142857" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -696,7 +856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -707,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="6">
-        <v>3194949467</v>
+        <v>3.194949467E9</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -728,7 +888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -739,7 +899,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="6">
-        <v>9203403653</v>
+        <v>9.203403653E9</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>22</v>
@@ -760,7 +920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -771,7 +931,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="6">
-        <v>3609714659</v>
+        <v>3.609714659E9</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -792,7 +952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -803,7 +963,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="6">
-        <v>3962268342</v>
+        <v>3.962268342E9</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -824,7 +984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -835,7 +995,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="6">
-        <v>1404192248</v>
+        <v>1.404192248E9</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>44</v>
@@ -856,7 +1016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -867,7 +1027,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="6">
-        <v>9318318143</v>
+        <v>9.318318143E9</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>14</v>
@@ -888,7 +1048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
@@ -899,7 +1059,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="6">
-        <v>3562185179</v>
+        <v>3.562185179E9</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>14</v>
@@ -920,7 +1080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
@@ -931,7 +1091,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="6">
-        <v>7517708696</v>
+        <v>7.517708696E9</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>65</v>
@@ -952,7 +1112,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -963,7 +1123,7 @@
         <v>72</v>
       </c>
       <c r="D10" s="6">
-        <v>6158998713</v>
+        <v>6.158998713E9</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>14</v>
@@ -984,7 +1144,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>77</v>
       </c>
@@ -995,7 +1155,7 @@
         <v>79</v>
       </c>
       <c r="D11" s="6">
-        <v>6981934764</v>
+        <v>6.981934764E9</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>22</v>
@@ -1013,6 +1173,326 @@
         <v>1480412</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15">
+      <c r="A20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1022,37 +1502,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7fd48cbd-215d-423f-ab08-a10a0a380381}">
+  <dimension ref="A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
+    <row r="5" spans="1:1" ht="23.25" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/data/students.xlsx
+++ b/src/data/students.xlsx
@@ -1,283 +1,295 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="data"/>
-    <sheet r:id="rId2" sheetId="2" name="Evaluation Warning"/>
+    <sheet name="data" sheetId="1" r:id="rId3"/>
+    <sheet name="Evaluation Warning" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
+  <si>
+    <t>jbarraza@gmail.com</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>civil_state</t>
+  </si>
+  <si>
+    <t>type_document</t>
+  </si>
+  <si>
+    <t>document_number</t>
+  </si>
+  <si>
+    <t>is_bachiller</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>Cly</t>
+  </si>
+  <si>
+    <t>Realph</t>
+  </si>
+  <si>
+    <t>crealph0@liveinternet.ru</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>57585 Maple Wood Place</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Darby</t>
+  </si>
+  <si>
+    <t>Arlina</t>
+  </si>
+  <si>
+    <t>Gilfillan</t>
+  </si>
+  <si>
+    <t>agilfillan1@jugem.jp</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>37864 Helena Center</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Bupropion Hydrochloride</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Petyt</t>
+  </si>
+  <si>
+    <t>lpetyt2@wufoo.com</t>
+  </si>
+  <si>
+    <t>430 Doe Crossing Circle</t>
+  </si>
+  <si>
+    <t>Antiacterial Hand Sanitizer</t>
+  </si>
+  <si>
+    <t>Artair</t>
+  </si>
+  <si>
+    <t>Fedynski</t>
+  </si>
+  <si>
+    <t>afedynski3@bizjournals.com</t>
+  </si>
+  <si>
+    <t>7 Packers Crossing</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>Venlafaxine Hydrochloride</t>
+  </si>
+  <si>
+    <t>Salvatore</t>
+  </si>
+  <si>
+    <t>Caesmans</t>
+  </si>
+  <si>
+    <t>scaesmans4@chron.com</t>
+  </si>
+  <si>
+    <t>6 West Pass</t>
+  </si>
+  <si>
+    <t>widower</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>Clonazepam</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>Frigot</t>
+  </si>
+  <si>
+    <t>afrigot5@hexun.com</t>
+  </si>
+  <si>
+    <t>3838 Heath Way</t>
+  </si>
+  <si>
+    <t>divorced</t>
+  </si>
+  <si>
+    <t>demeclocycline hydrochloride</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Twitchett</t>
+  </si>
+  <si>
+    <t>btwitchett6@ibm.com</t>
+  </si>
+  <si>
+    <t>4 Scofield Crossing</t>
+  </si>
+  <si>
+    <t>OLANZAPINE</t>
+  </si>
+  <si>
+    <t>Bethina</t>
+  </si>
+  <si>
+    <t>Whaley</t>
+  </si>
+  <si>
+    <t>bwhaley7@twitter.com</t>
+  </si>
+  <si>
+    <t>595 Barby Place</t>
+  </si>
+  <si>
+    <t>CAREONE ANTIMICROBIAL FOAMING HAND SP FALLING RAIN</t>
+  </si>
+  <si>
+    <t>Edvard</t>
+  </si>
+  <si>
+    <t>Duffield</t>
+  </si>
+  <si>
+    <t>eduffield8@vistaprint.com</t>
+  </si>
+  <si>
+    <t>117 Alpine Center</t>
+  </si>
+  <si>
+    <t>ZINACEF</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>Caudrey</t>
+  </si>
+  <si>
+    <t>acaudrey9@prweb.com</t>
+  </si>
+  <si>
+    <t>29 Vernon Alley</t>
+  </si>
+  <si>
+    <t>healthy accents pain relief</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Barraza</t>
+  </si>
+  <si>
+    <t>JuanB@gmail.com</t>
+  </si>
+  <si>
+    <t>pozon</t>
+  </si>
+  <si>
+    <t>cajacopi</t>
+  </si>
+  <si>
+    <t>juanb@gmail.com</t>
+  </si>
+  <si>
+    <t>Deiver</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>thebigdeijose@gmail.com</t>
+  </si>
+  <si>
+    <t>San Jose de los Campanos</t>
+  </si>
+  <si>
+    <t>Cajacopi</t>
+  </si>
+  <si>
+    <t>3001234567</t>
+  </si>
+  <si>
+    <t>San jose de los campanos</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2023 Aspose Pty Ltd.</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>civil_state</t>
-  </si>
-  <si>
-    <t>type_document</t>
-  </si>
-  <si>
-    <t>document_number</t>
-  </si>
-  <si>
-    <t>is_bachiller</t>
-  </si>
-  <si>
-    <t>eps</t>
-  </si>
-  <si>
-    <t>Cly</t>
-  </si>
-  <si>
-    <t>Realph</t>
-  </si>
-  <si>
-    <t>crealph0@liveinternet.ru</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>57585 Maple Wood Place</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Darby</t>
-  </si>
-  <si>
-    <t>Arlina</t>
-  </si>
-  <si>
-    <t>Gilfillan</t>
-  </si>
-  <si>
-    <t>agilfillan1@jugem.jp</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>37864 Helena Center</t>
-  </si>
-  <si>
-    <t>married</t>
-  </si>
-  <si>
-    <t>ce</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Bupropion Hydrochloride</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Petyt</t>
-  </si>
-  <si>
-    <t>lpetyt2@wufoo.com</t>
-  </si>
-  <si>
-    <t>430 Doe Crossing Circle</t>
-  </si>
-  <si>
-    <t>Antiacterial Hand Sanitizer</t>
-  </si>
-  <si>
-    <t>Artair</t>
-  </si>
-  <si>
-    <t>Fedynski</t>
-  </si>
-  <si>
-    <t>afedynski3@bizjournals.com</t>
-  </si>
-  <si>
-    <t>7 Packers Crossing</t>
-  </si>
-  <si>
-    <t>passport</t>
-  </si>
-  <si>
-    <t>Venlafaxine Hydrochloride</t>
-  </si>
-  <si>
-    <t>Salvatore</t>
-  </si>
-  <si>
-    <t>Caesmans</t>
-  </si>
-  <si>
-    <t>scaesmans4@chron.com</t>
-  </si>
-  <si>
-    <t>6 West Pass</t>
-  </si>
-  <si>
-    <t>widower</t>
-  </si>
-  <si>
-    <t>ppt</t>
-  </si>
-  <si>
-    <t>Clonazepam</t>
-  </si>
-  <si>
-    <t>Archer</t>
-  </si>
-  <si>
-    <t>Frigot</t>
-  </si>
-  <si>
-    <t>afrigot5@hexun.com</t>
-  </si>
-  <si>
-    <t>3838 Heath Way</t>
-  </si>
-  <si>
-    <t>divorced</t>
-  </si>
-  <si>
-    <t>demeclocycline hydrochloride</t>
-  </si>
-  <si>
-    <t>Billy</t>
-  </si>
-  <si>
-    <t>Twitchett</t>
-  </si>
-  <si>
-    <t>btwitchett6@ibm.com</t>
-  </si>
-  <si>
-    <t>4 Scofield Crossing</t>
-  </si>
-  <si>
-    <t>OLANZAPINE</t>
-  </si>
-  <si>
-    <t>Bethina</t>
-  </si>
-  <si>
-    <t>Whaley</t>
-  </si>
-  <si>
-    <t>bwhaley7@twitter.com</t>
-  </si>
-  <si>
-    <t>595 Barby Place</t>
-  </si>
-  <si>
-    <t>CAREONE ANTIMICROBIAL FOAMING HAND SP FALLING RAIN</t>
-  </si>
-  <si>
-    <t>Edvard</t>
-  </si>
-  <si>
-    <t>Duffield</t>
-  </si>
-  <si>
-    <t>eduffield8@vistaprint.com</t>
-  </si>
-  <si>
-    <t>117 Alpine Center</t>
-  </si>
-  <si>
-    <t>ZINACEF</t>
-  </si>
-  <si>
-    <t>Ariana</t>
-  </si>
-  <si>
-    <t>Caudrey</t>
-  </si>
-  <si>
-    <t>acaudrey9@prweb.com</t>
-  </si>
-  <si>
-    <t>29 Vernon Alley</t>
-  </si>
-  <si>
-    <t>healthy accents pain relief</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Barraza</t>
-  </si>
-  <si>
-    <t>JuanB@gmail.com</t>
-  </si>
-  <si>
-    <t>pozon</t>
-  </si>
-  <si>
-    <t>cajacopi</t>
-  </si>
-  <si>
-    <t>juanb@gmail.com</t>
-  </si>
-  <si>
-    <t>Deiver</t>
-  </si>
-  <si>
-    <t>Vasquez</t>
-  </si>
-  <si>
-    <t>thebigdeijose@gmail.com</t>
-  </si>
-  <si>
-    <t>San Jose de los Campanos</t>
-  </si>
-  <si>
-    <t>Cajacopi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,10 +298,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="18"/>
-      <color rgb="FF0000ff"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -320,14 +338,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -336,53 +347,154 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -393,10 +505,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -672,30 +784,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="10" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="59.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="10.571428571428571" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.714285714285714" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.285714285714285" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.285714285714286" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.571428571428571" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.714285714285715" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.857142857142858" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.714285714285715" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.285714285714286" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.285714285714285" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -730,7 +842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -741,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="7">
-        <v>3194949467</v>
+        <v>3.194949467E9</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -765,7 +877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -776,7 +888,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="7">
-        <v>9203403653</v>
+        <v>9.203403653E9</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>24</v>
@@ -800,7 +912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -811,7 +923,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>3609714659</v>
+        <v>3.609714659E9</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -835,7 +947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -846,7 +958,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>3962268342</v>
+        <v>3.962268342E9</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
@@ -870,7 +982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:11" ht="18.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -881,7 +993,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="7">
-        <v>1404192248</v>
+        <v>1.404192248E9</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
@@ -905,7 +1017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:11" ht="18.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -916,7 +1028,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>9318318143</v>
+        <v>9.318318143E9</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
@@ -940,7 +1052,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:11" ht="18.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
@@ -951,7 +1063,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="7">
-        <v>3562185179</v>
+        <v>3.562185179E9</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
@@ -975,7 +1087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:11" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -986,7 +1098,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="7">
-        <v>7517708696</v>
+        <v>7.517708696E9</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>24</v>
@@ -1010,7 +1122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -1021,7 +1133,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>6158998713</v>
+        <v>6.158998713E9</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
@@ -1045,7 +1157,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:11" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
@@ -1056,7 +1168,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="7">
-        <v>6981934764</v>
+        <v>6.981934764E9</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>24</v>
@@ -1080,7 +1192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:11" ht="18.75" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
@@ -1091,7 +1203,7 @@
         <v>76</v>
       </c>
       <c r="D12" s="9">
-        <v>3001234567</v>
+        <v>3.001234567E9</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>15</v>
@@ -1115,7 +1227,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:11" ht="18.75" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>74</v>
       </c>
@@ -1126,7 +1238,7 @@
         <v>79</v>
       </c>
       <c r="D13" s="9">
-        <v>3001234567</v>
+        <v>3.001234567E9</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>15</v>
@@ -1150,7 +1262,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:11" ht="18.75" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>80</v>
       </c>
@@ -1161,7 +1273,7 @@
         <v>82</v>
       </c>
       <c r="D14" s="9">
-        <v>3007887902</v>
+        <v>3.007887902E9</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>15</v>
@@ -1182,6 +1294,41 @@
         <v>19</v>
       </c>
       <c r="K14" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="A15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1191,37 +1338,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138f4f9-626b-414d-b169-f12422d836b7}">
+  <dimension ref="A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
+    <row r="5" spans="1:1" ht="23.25" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>